--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air_WorldSpan_OneWay" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Worldspan air oneway booking for DOMESTIC location for 1 Adult with With_Login payment mode.</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
-  </si>
-  <si>
     <t>OneWay</t>
   </si>
   <si>
@@ -92,24 +89,12 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>Worldspan air oneway booking for DOMESTIC location 1 Adult and 1 child with OnAccount payment mode.</t>
-  </si>
-  <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN</t>
-  </si>
-  <si>
     <t>Creditcard</t>
   </si>
   <si>
-    <t>Worldspan air oneway booking for DOMESTIC location for 1 adult and 1 infant with OnAccount payment mode.</t>
-  </si>
-  <si>
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
   <si>
-    <t>Worldspan air oneway booking for DOMESTIC location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
-  </si>
-  <si>
     <t>DFW-MCO</t>
   </si>
   <si>
@@ -123,18 +108,6 @@
   </si>
   <si>
     <t>Guest</t>
-  </si>
-  <si>
-    <t>Worldspan air round trip booking for DOMESTIC location 1 Adult and 1 child with OnAccount payment mode.</t>
-  </si>
-  <si>
-    <t>Worldspan air round trip booking for DOMESTIC location for 1 adult and 1 infant with OnAccount payment mode.</t>
-  </si>
-  <si>
-    <t>Worldspan air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
-  </si>
-  <si>
-    <t>Preferred</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="33"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
@@ -1101,8 +1074,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q5" totalsRowShown="0">
-  <autoFilter ref="A1:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
@@ -1413,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="13">
         <v>25</v>
@@ -1521,164 +1494,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="13">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="13">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1690,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,19 +1603,19 @@
     </row>
     <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1798,164 +1630,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_WorldSpan_OneWay" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>RoviaBucks</t>
-  </si>
-  <si>
     <t>Worldspan</t>
   </si>
   <si>
@@ -107,7 +104,22 @@
     <t>25|32</t>
   </si>
   <si>
-    <t>Guest</t>
+    <t>Worldspan air oneway booking for DOMESTIC location 1 Adult and 1 child with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>Worldspan air oneway booking for DOMESTIC location for 1 adult and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>Worldspan air oneway booking for DOMESTIC location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>Worldspan air round trip booking for DOMESTIC location 1 Adult and 1 child with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>Worldspan air round trip booking for DOMESTIC location for 1 adult and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>Worldspan air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,24 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -297,9 +296,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,7 +307,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -664,7 +662,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -894,9 +894,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1048,8 +1046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="33"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
@@ -1074,8 +1072,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q5" totalsRowShown="0">
+  <autoFilter ref="A1:Q5"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="16"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
@@ -1386,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,12 +1463,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -1501,16 +1499,157 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="15"/>
+      <c r="N3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1522,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,21 +1740,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1637,16 +1776,157 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="15"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air_WorldSpan_OneWay" sheetId="1" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -74,9 +74,6 @@
     <t>OneWay</t>
   </si>
   <si>
-    <t>DFW-BWI</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
   <si>
-    <t>DFW-MCO</t>
-  </si>
-  <si>
     <t>Worldspan air round trip booking for DOMESTIC location for 1 Adult with OnAccount payment mode.</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>Worldspan air round trip booking for DOMESTIC location for 1 adult .1 child and 1 infant with OnAccount payment mode.</t>
+  </si>
+  <si>
+    <t>LAS-LAX</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,13 +1465,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2" s="13">
         <v>25</v>
@@ -1492,36 +1489,36 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E3" s="13">
         <v>25</v>
@@ -1539,36 +1536,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4" s="13">
         <v>25</v>
@@ -1586,36 +1583,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13">
         <v>25</v>
@@ -1633,20 +1630,20 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1663,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,19 +1739,19 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1769,39 +1766,39 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1816,39 +1813,39 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1863,39 +1860,39 @@
         <v>0</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1910,20 +1907,20 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_WorldSpan_OneWay" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>LAS-LAX</t>
+  </si>
+  <si>
+    <t>WSpan</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>21</v>
@@ -1593,7 +1596,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>21</v>
@@ -1640,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>21</v>
@@ -1660,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1779,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>21</v>
@@ -1823,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>21</v>
@@ -1870,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>21</v>
@@ -1917,7 +1920,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>21</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_WorldSpan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_WorldSpan_OneWay" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Worldspan</t>
-  </si>
-  <si>
     <t>Registered</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>LAS-LAX</t>
   </si>
   <si>
-    <t>WSpan</t>
+    <t>WSPan</t>
   </si>
 </sst>
 </file>
@@ -1386,9 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1468,13 +1463,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="13">
         <v>25</v>
@@ -1499,29 +1494,29 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="13">
         <v>25</v>
@@ -1546,29 +1541,29 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="13">
         <v>25</v>
@@ -1593,29 +1588,29 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="13">
         <v>25</v>
@@ -1640,13 +1635,13 @@
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1663,9 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1742,19 +1735,19 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1776,32 +1769,32 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1823,32 +1816,32 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1870,32 +1863,32 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1917,13 +1910,13 @@
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
